--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.60313666666667</v>
+        <v>32.74870266666667</v>
       </c>
       <c r="H2">
-        <v>82.80941000000001</v>
+        <v>98.24610799999999</v>
       </c>
       <c r="I2">
-        <v>0.6521368039512228</v>
+        <v>0.6379427096830631</v>
       </c>
       <c r="J2">
-        <v>0.6521368039512228</v>
+        <v>0.6379427096830631</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.91569033333334</v>
+        <v>43.20983933333334</v>
       </c>
       <c r="N2">
-        <v>146.747071</v>
+        <v>129.629518</v>
       </c>
       <c r="O2">
-        <v>0.6566518775718726</v>
+        <v>0.6315174248499266</v>
       </c>
       <c r="P2">
-        <v>0.6566518775718727</v>
+        <v>0.6315174248499266</v>
       </c>
       <c r="Q2">
-        <v>1350.226485415346</v>
+        <v>1415.066180601772</v>
       </c>
       <c r="R2">
-        <v>12152.03836873811</v>
+        <v>12735.59562541594</v>
       </c>
       <c r="S2">
-        <v>0.4282268567482906</v>
+        <v>0.4028719372208323</v>
       </c>
       <c r="T2">
-        <v>0.4282268567482907</v>
+        <v>0.4028719372208323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.60313666666667</v>
+        <v>32.74870266666667</v>
       </c>
       <c r="H3">
-        <v>82.80941000000001</v>
+        <v>98.24610799999999</v>
       </c>
       <c r="I3">
-        <v>0.6521368039512228</v>
+        <v>0.6379427096830631</v>
       </c>
       <c r="J3">
-        <v>0.6521368039512228</v>
+        <v>0.6379427096830631</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.728254</v>
       </c>
       <c r="O3">
-        <v>0.01220816946726638</v>
+        <v>0.01329126241460306</v>
       </c>
       <c r="P3">
-        <v>0.01220816946726638</v>
+        <v>0.01329126241460306</v>
       </c>
       <c r="Q3">
-        <v>25.10278934112667</v>
+        <v>29.78225968171466</v>
       </c>
       <c r="R3">
-        <v>225.92510407014</v>
+        <v>268.040337135432</v>
       </c>
       <c r="S3">
-        <v>0.007961396618477997</v>
+        <v>0.008479063959880529</v>
       </c>
       <c r="T3">
-        <v>0.007961396618477999</v>
+        <v>0.008479063959880529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.60313666666667</v>
+        <v>32.74870266666667</v>
       </c>
       <c r="H4">
-        <v>82.80941000000001</v>
+        <v>98.24610799999999</v>
       </c>
       <c r="I4">
-        <v>0.6521368039512228</v>
+        <v>0.6379427096830631</v>
       </c>
       <c r="J4">
-        <v>0.6521368039512228</v>
+        <v>0.6379427096830631</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.49948466666666</v>
+        <v>24.10288866666667</v>
       </c>
       <c r="N4">
-        <v>73.498454</v>
+        <v>72.308666</v>
       </c>
       <c r="O4">
-        <v>0.3288849139464589</v>
+        <v>0.3522668544262691</v>
       </c>
       <c r="P4">
-        <v>0.328884913946459</v>
+        <v>0.3522668544262691</v>
       </c>
       <c r="Q4">
-        <v>676.2626235169045</v>
+        <v>789.3383343524365</v>
       </c>
       <c r="R4">
-        <v>6086.36361165214</v>
+        <v>7104.045009171928</v>
       </c>
       <c r="S4">
-        <v>0.2144779566488166</v>
+        <v>0.2247260716442233</v>
       </c>
       <c r="T4">
-        <v>0.2144779566488167</v>
+        <v>0.2247260716442232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.60313666666667</v>
+        <v>32.74870266666667</v>
       </c>
       <c r="H5">
-        <v>82.80941000000001</v>
+        <v>98.24610799999999</v>
       </c>
       <c r="I5">
-        <v>0.6521368039512228</v>
+        <v>0.6379427096830631</v>
       </c>
       <c r="J5">
-        <v>0.6521368039512228</v>
+        <v>0.6379427096830631</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1679836666666667</v>
+        <v>0.200098</v>
       </c>
       <c r="N5">
-        <v>0.503951</v>
+        <v>0.600294</v>
       </c>
       <c r="O5">
-        <v>0.002255039014402016</v>
+        <v>0.002924458309201317</v>
       </c>
       <c r="P5">
-        <v>0.002255039014402017</v>
+        <v>0.002924458309201317</v>
       </c>
       <c r="Q5">
-        <v>4.636876108767779</v>
+        <v>6.552949906194667</v>
       </c>
       <c r="R5">
-        <v>41.73188497891001</v>
+        <v>58.976549155752</v>
       </c>
       <c r="S5">
-        <v>0.001470593935637446</v>
+        <v>0.001865636858127037</v>
       </c>
       <c r="T5">
-        <v>0.001470593935637447</v>
+        <v>0.001865636858127037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.306244</v>
       </c>
       <c r="I6">
-        <v>0.01816202520090028</v>
+        <v>0.01497516366297488</v>
       </c>
       <c r="J6">
-        <v>0.01816202520090028</v>
+        <v>0.01497516366297488</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.91569033333334</v>
+        <v>43.20983933333334</v>
       </c>
       <c r="N6">
-        <v>146.747071</v>
+        <v>129.629518</v>
       </c>
       <c r="O6">
-        <v>0.6566518775718726</v>
+        <v>0.6315174248499266</v>
       </c>
       <c r="P6">
-        <v>0.6566518775718727</v>
+        <v>0.6315174248499266</v>
       </c>
       <c r="Q6">
-        <v>37.60383911236934</v>
+        <v>33.21747756782134</v>
       </c>
       <c r="R6">
-        <v>338.434552011324</v>
+        <v>298.9572981103921</v>
       </c>
       <c r="S6">
-        <v>0.01192612794867883</v>
+        <v>0.009457076793148092</v>
       </c>
       <c r="T6">
-        <v>0.01192612794867884</v>
+        <v>0.009457076793148092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.306244</v>
       </c>
       <c r="I7">
-        <v>0.01816202520090028</v>
+        <v>0.01497516366297488</v>
       </c>
       <c r="J7">
-        <v>0.01816202520090028</v>
+        <v>0.01497516366297488</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.728254</v>
       </c>
       <c r="O7">
-        <v>0.01220816946726638</v>
+        <v>0.01329126241460306</v>
       </c>
       <c r="P7">
-        <v>0.01220816946726638</v>
+        <v>0.01329126241460306</v>
       </c>
       <c r="Q7">
         <v>0.6991132686639999</v>
@@ -883,10 +883,10 @@
         <v>6.292019417975999</v>
       </c>
       <c r="S7">
-        <v>0.0002217250815213533</v>
+        <v>0.0001990388299462276</v>
       </c>
       <c r="T7">
-        <v>0.0002217250815213533</v>
+        <v>0.0001990388299462276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.306244</v>
       </c>
       <c r="I8">
-        <v>0.01816202520090028</v>
+        <v>0.01497516366297488</v>
       </c>
       <c r="J8">
-        <v>0.01816202520090028</v>
+        <v>0.01497516366297488</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.49948466666666</v>
+        <v>24.10288866666667</v>
       </c>
       <c r="N8">
-        <v>73.498454</v>
+        <v>72.308666</v>
       </c>
       <c r="O8">
-        <v>0.3288849139464589</v>
+        <v>0.3522668544262691</v>
       </c>
       <c r="P8">
-        <v>0.328884913946459</v>
+        <v>0.3522668544262691</v>
       </c>
       <c r="Q8">
-        <v>18.83392983853066</v>
+        <v>18.52904745672267</v>
       </c>
       <c r="R8">
-        <v>169.505368546776</v>
+        <v>166.761427110504</v>
       </c>
       <c r="S8">
-        <v>0.005973216095291506</v>
+        <v>0.005275253798074729</v>
       </c>
       <c r="T8">
-        <v>0.005973216095291508</v>
+        <v>0.005275253798074728</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.306244</v>
       </c>
       <c r="I9">
-        <v>0.01816202520090028</v>
+        <v>0.01497516366297488</v>
       </c>
       <c r="J9">
-        <v>0.01816202520090028</v>
+        <v>0.01497516366297488</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1679836666666667</v>
+        <v>0.200098</v>
       </c>
       <c r="N9">
-        <v>0.503951</v>
+        <v>0.600294</v>
       </c>
       <c r="O9">
-        <v>0.002255039014402016</v>
+        <v>0.002924458309201317</v>
       </c>
       <c r="P9">
-        <v>0.002255039014402017</v>
+        <v>0.002924458309201317</v>
       </c>
       <c r="Q9">
-        <v>0.1291371077826667</v>
+        <v>0.153824937304</v>
       </c>
       <c r="R9">
-        <v>1.162233970044</v>
+        <v>1.384424435736</v>
       </c>
       <c r="S9">
-        <v>4.095607540858274E-05</v>
+        <v>4.379424180583654E-05</v>
       </c>
       <c r="T9">
-        <v>4.095607540858276E-05</v>
+        <v>4.379424180583654E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.83269</v>
+        <v>17.70628</v>
       </c>
       <c r="H10">
-        <v>41.49807000000001</v>
+        <v>53.11884</v>
       </c>
       <c r="I10">
-        <v>0.3268036656696879</v>
+        <v>0.3449172431830183</v>
       </c>
       <c r="J10">
-        <v>0.326803665669688</v>
+        <v>0.3449172431830183</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.91569033333334</v>
+        <v>43.20983933333334</v>
       </c>
       <c r="N10">
-        <v>146.747071</v>
+        <v>129.629518</v>
       </c>
       <c r="O10">
-        <v>0.6566518775718726</v>
+        <v>0.6315174248499266</v>
       </c>
       <c r="P10">
-        <v>0.6566518775718727</v>
+        <v>0.6315174248499266</v>
       </c>
       <c r="Q10">
-        <v>676.6355805169968</v>
+        <v>765.0855139910135</v>
       </c>
       <c r="R10">
-        <v>6089.720224652971</v>
+        <v>6885.769625919121</v>
       </c>
       <c r="S10">
-        <v>0.2145962406593711</v>
+        <v>0.2178212492012756</v>
       </c>
       <c r="T10">
-        <v>0.2145962406593712</v>
+        <v>0.2178212492012756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.83269</v>
+        <v>17.70628</v>
       </c>
       <c r="H11">
-        <v>41.49807000000001</v>
+        <v>53.11884</v>
       </c>
       <c r="I11">
-        <v>0.3268036656696879</v>
+        <v>0.3449172431830183</v>
       </c>
       <c r="J11">
-        <v>0.326803665669688</v>
+        <v>0.3449172431830183</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.728254</v>
       </c>
       <c r="O11">
-        <v>0.01220816946726638</v>
+        <v>0.01329126241460306</v>
       </c>
       <c r="P11">
-        <v>0.01220816946726638</v>
+        <v>0.01329126241460306</v>
       </c>
       <c r="Q11">
-        <v>12.57969727442</v>
+        <v>16.10240974504</v>
       </c>
       <c r="R11">
-        <v>113.21727546978</v>
+        <v>144.92168770536</v>
       </c>
       <c r="S11">
-        <v>0.003989674533019414</v>
+        <v>0.004584385590466955</v>
       </c>
       <c r="T11">
-        <v>0.003989674533019415</v>
+        <v>0.004584385590466956</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.83269</v>
+        <v>17.70628</v>
       </c>
       <c r="H12">
-        <v>41.49807000000001</v>
+        <v>53.11884</v>
       </c>
       <c r="I12">
-        <v>0.3268036656696879</v>
+        <v>0.3449172431830183</v>
       </c>
       <c r="J12">
-        <v>0.326803665669688</v>
+        <v>0.3449172431830183</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.49948466666666</v>
+        <v>24.10288866666667</v>
       </c>
       <c r="N12">
-        <v>73.498454</v>
+        <v>72.308666</v>
       </c>
       <c r="O12">
-        <v>0.3288849139464589</v>
+        <v>0.3522668544262691</v>
       </c>
       <c r="P12">
-        <v>0.328884913946459</v>
+        <v>0.3522668544262691</v>
       </c>
       <c r="Q12">
-        <v>338.8937765537533</v>
+        <v>426.7724955408267</v>
       </c>
       <c r="R12">
-        <v>3050.04398898378</v>
+        <v>3840.95245986744</v>
       </c>
       <c r="S12">
-        <v>0.1074807954611626</v>
+        <v>0.1215029122934624</v>
       </c>
       <c r="T12">
-        <v>0.1074807954611627</v>
+        <v>0.1215029122934624</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.83269</v>
+        <v>17.70628</v>
       </c>
       <c r="H13">
-        <v>41.49807000000001</v>
+        <v>53.11884</v>
       </c>
       <c r="I13">
-        <v>0.3268036656696879</v>
+        <v>0.3449172431830183</v>
       </c>
       <c r="J13">
-        <v>0.326803665669688</v>
+        <v>0.3449172431830183</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1679836666666667</v>
+        <v>0.200098</v>
       </c>
       <c r="N13">
-        <v>0.503951</v>
+        <v>0.600294</v>
       </c>
       <c r="O13">
-        <v>0.002255039014402016</v>
+        <v>0.002924458309201317</v>
       </c>
       <c r="P13">
-        <v>0.002255039014402017</v>
+        <v>0.002924458309201317</v>
       </c>
       <c r="Q13">
-        <v>2.323665986063334</v>
+        <v>3.54299121544</v>
       </c>
       <c r="R13">
-        <v>20.91299387457001</v>
+        <v>31.88692093896</v>
       </c>
       <c r="S13">
-        <v>0.0007369550161347391</v>
+        <v>0.001008696097813389</v>
       </c>
       <c r="T13">
-        <v>0.0007369550161347396</v>
+        <v>0.001008696097813389</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1226433333333333</v>
+        <v>0.111134</v>
       </c>
       <c r="H14">
-        <v>0.36793</v>
+        <v>0.333402</v>
       </c>
       <c r="I14">
-        <v>0.002897505178188968</v>
+        <v>0.00216488347094373</v>
       </c>
       <c r="J14">
-        <v>0.002897505178188968</v>
+        <v>0.00216488347094373</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.91569033333334</v>
+        <v>43.20983933333334</v>
       </c>
       <c r="N14">
-        <v>146.747071</v>
+        <v>129.629518</v>
       </c>
       <c r="O14">
-        <v>0.6566518775718726</v>
+        <v>0.6315174248499266</v>
       </c>
       <c r="P14">
-        <v>0.6566518775718727</v>
+        <v>0.6315174248499266</v>
       </c>
       <c r="Q14">
-        <v>5.999183314781111</v>
+        <v>4.802082284470668</v>
       </c>
       <c r="R14">
-        <v>53.99264983303</v>
+        <v>43.218740560236</v>
       </c>
       <c r="S14">
-        <v>0.001902652215532009</v>
+        <v>0.001367161634670555</v>
       </c>
       <c r="T14">
-        <v>0.00190265221553201</v>
+        <v>0.001367161634670555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1226433333333333</v>
+        <v>0.111134</v>
       </c>
       <c r="H15">
-        <v>0.36793</v>
+        <v>0.333402</v>
       </c>
       <c r="I15">
-        <v>0.002897505178188968</v>
+        <v>0.00216488347094373</v>
       </c>
       <c r="J15">
-        <v>0.002897505178188968</v>
+        <v>0.00216488347094373</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.728254</v>
       </c>
       <c r="O15">
-        <v>0.01220816946726638</v>
+        <v>0.01329126241460306</v>
       </c>
       <c r="P15">
-        <v>0.01220816946726638</v>
+        <v>0.01329126241460306</v>
       </c>
       <c r="Q15">
-        <v>0.1115340549133333</v>
+        <v>0.101067260012</v>
       </c>
       <c r="R15">
-        <v>1.00380649422</v>
+        <v>0.9096053401079999</v>
       </c>
       <c r="S15">
-        <v>3.537323424761279E-05</v>
+        <v>2.877403430934982E-05</v>
       </c>
       <c r="T15">
-        <v>3.537323424761279E-05</v>
+        <v>2.877403430934982E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1226433333333333</v>
+        <v>0.111134</v>
       </c>
       <c r="H16">
-        <v>0.36793</v>
+        <v>0.333402</v>
       </c>
       <c r="I16">
-        <v>0.002897505178188968</v>
+        <v>0.00216488347094373</v>
       </c>
       <c r="J16">
-        <v>0.002897505178188968</v>
+        <v>0.00216488347094373</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.49948466666666</v>
+        <v>24.10288866666667</v>
       </c>
       <c r="N16">
-        <v>73.498454</v>
+        <v>72.308666</v>
       </c>
       <c r="O16">
-        <v>0.3288849139464589</v>
+        <v>0.3522668544262691</v>
       </c>
       <c r="P16">
-        <v>0.328884913946459</v>
+        <v>0.3522668544262691</v>
       </c>
       <c r="Q16">
-        <v>3.004698464468889</v>
+        <v>2.678650429081333</v>
       </c>
       <c r="R16">
-        <v>27.04228618022</v>
+        <v>24.107853861732</v>
       </c>
       <c r="S16">
-        <v>0.0009529457411880979</v>
+        <v>0.0007626166905087714</v>
       </c>
       <c r="T16">
-        <v>0.0009529457411880983</v>
+        <v>0.0007626166905087713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1226433333333333</v>
+        <v>0.111134</v>
       </c>
       <c r="H17">
-        <v>0.36793</v>
+        <v>0.333402</v>
       </c>
       <c r="I17">
-        <v>0.002897505178188968</v>
+        <v>0.00216488347094373</v>
       </c>
       <c r="J17">
-        <v>0.002897505178188968</v>
+        <v>0.00216488347094373</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1679836666666667</v>
+        <v>0.200098</v>
       </c>
       <c r="N17">
-        <v>0.503951</v>
+        <v>0.600294</v>
       </c>
       <c r="O17">
-        <v>0.002255039014402016</v>
+        <v>0.002924458309201317</v>
       </c>
       <c r="P17">
-        <v>0.002255039014402017</v>
+        <v>0.002924458309201317</v>
       </c>
       <c r="Q17">
-        <v>0.02060207682555555</v>
+        <v>0.022237691132</v>
       </c>
       <c r="R17">
-        <v>0.18541869143</v>
+        <v>0.200139220188</v>
       </c>
       <c r="S17">
-        <v>6.53398722124799E-06</v>
+        <v>6.331111455053981E-06</v>
       </c>
       <c r="T17">
-        <v>6.533987221247992E-06</v>
+        <v>6.331111455053981E-06</v>
       </c>
     </row>
   </sheetData>
